--- a/databases/Machines.xlsx
+++ b/databases/Machines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/d_aggarwal_sap_com/Documents/Duales Studium/HWG LU/Vorlesungen/2. Semester/Aktuelle Themen der IT/Repo/ATdIT_Gruppe5/databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I518185\OneDrive - SAP SE\Duales Studium\HWG LU\Vorlesungen\2. Semester\Aktuelle Themen der IT\Repo\ATdIT_Gruppe5\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0774E636-5D22-4868-83C4-7BA759A070B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0774E636-5D22-4868-83C4-7BA759A070B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C987FB7-FDCA-4E68-823D-F83FFC599F0C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3914FDED-0E08-475A-A778-141AE2B00E03}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>current_status</t>
   </si>
   <si>
-    <t>next_maintainance</t>
-  </si>
-  <si>
     <t>responsible_person</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Wheel loader</t>
+  </si>
+  <si>
+    <t>next_maintenance</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,10 +459,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
